--- a/ForHer22_PROGRAM_alt.xlsx
+++ b/ForHer22_PROGRAM_alt.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanecakr\Documents\R_github\forests2heritage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A9764-1B55-43D5-86D2-99DE8FEEA87C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C414864-5691-4486-8D3A-E66E5E3E4420}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17DECA21-1FE6-4758-AA98-733CFD1E0FA3}"/>
+    <workbookView xWindow="3528" yWindow="1800" windowWidth="17280" windowHeight="8964" xr2:uid="{17DECA21-1FE6-4758-AA98-733CFD1E0FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ORAL and POSTER PRESENTATIONS" sheetId="1" r:id="rId1"/>
     <sheet name="program with all time slots" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk65507359" localSheetId="0">'ORAL and POSTER PRESENTATIONS'!$D$73</definedName>
+    <definedName name="_Hlk65507359" localSheetId="0">'ORAL and POSTER PRESENTATIONS'!$D$72</definedName>
     <definedName name="_Hlk65507359" localSheetId="1">'program with all time slots'!$D$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="374">
   <si>
     <t>day</t>
   </si>
@@ -1922,10 +1922,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2933,46 +2933,48 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="56"/>
+      <c r="B50" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="48"/>
       <c r="G50" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="17" t="s">
+    <row r="51" spans="1:9" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="24"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="40"/>
+      <c r="C52" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
@@ -2980,147 +2982,153 @@
       </c>
       <c r="B53" s="40"/>
       <c r="C53" s="48" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="D53" s="27"/>
-      <c r="E53" s="62" t="s">
-        <v>368</v>
-      </c>
+      <c r="E53" s="62"/>
       <c r="F53" s="27"/>
       <c r="G53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="27"/>
+      <c r="B54" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="G54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G55" s="1">
-        <v>3</v>
-      </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G56" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G57" s="1">
-        <v>5</v>
-      </c>
-      <c r="I57" s="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G58" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G59" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
@@ -3128,104 +3136,102 @@
         <v>143</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G60" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G61" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="B62" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="48"/>
+      <c r="E62" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="48"/>
       <c r="G62" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>174</v>
-      </c>
+      <c r="B63" s="40"/>
       <c r="C63" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="48"/>
+        <v>347</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="F63" s="27"/>
       <c r="G63" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="F64" s="27"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="G64" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
@@ -3234,19 +3240,19 @@
       </c>
       <c r="B65" s="45"/>
       <c r="C65" s="34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F65" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G65" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
@@ -3255,41 +3261,42 @@
       </c>
       <c r="B66" s="45"/>
       <c r="C66" s="34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F66" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G66" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B67" s="45"/>
       <c r="C67" s="34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G67" s="1">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
@@ -3297,59 +3304,54 @@
       </c>
       <c r="B68" s="45"/>
       <c r="C68" s="34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F68" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G68" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>149</v>
-      </c>
+      <c r="B69" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="27"/>
       <c r="G69" s="1">
-        <v>17</v>
-      </c>
-      <c r="I69" s="3"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="B70" s="40"/>
       <c r="C70" s="41" t="s">
-        <v>51</v>
+        <v>348</v>
       </c>
       <c r="D70" s="41"/>
-      <c r="E70" s="30"/>
+      <c r="E70" s="62" t="s">
+        <v>369</v>
+      </c>
       <c r="F70" s="27"/>
       <c r="G70" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3358,53 +3360,59 @@
       </c>
       <c r="B71" s="40"/>
       <c r="C71" s="41" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D71" s="41"/>
-      <c r="E71" s="62" t="s">
-        <v>369</v>
-      </c>
+      <c r="E71" s="62"/>
       <c r="F71" s="27"/>
       <c r="G71" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D72" s="41"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="27"/>
+      <c r="B72" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>342</v>
+      </c>
       <c r="G72" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G73" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
@@ -3412,68 +3420,68 @@
         <v>143</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G74" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G75" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>203</v>
+        <v>28</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G76" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
@@ -3481,102 +3489,96 @@
         <v>143</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G77" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>342</v>
-      </c>
+      <c r="B78" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="51"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" s="51"/>
-      <c r="E79" s="32"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="41"/>
+      <c r="E79" s="62" t="s">
+        <v>369</v>
+      </c>
       <c r="F79" s="27"/>
       <c r="G79" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="F80" s="27"/>
+      <c r="B80" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>342</v>
+      </c>
       <c r="G80" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>342</v>
-      </c>
+      <c r="B81" s="40"/>
+      <c r="C81" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D81" s="41"/>
+      <c r="E81" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="F81" s="27"/>
       <c r="G81" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3585,172 +3587,172 @@
       </c>
       <c r="B82" s="40"/>
       <c r="C82" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D82" s="41"/>
-      <c r="E82" s="62" t="s">
-        <v>371</v>
-      </c>
+      <c r="E82" s="62"/>
       <c r="F82" s="27"/>
       <c r="G82" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="27"/>
+      <c r="B83" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="G83" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G84" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G85" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G86" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G87" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>218</v>
-      </c>
+      <c r="B88" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="48"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="F88" s="27"/>
       <c r="G88" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C89" s="48"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="19" t="s">
+    <row r="89" spans="1:7" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="24"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="24"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="40"/>
+      <c r="C90" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D90" s="41"/>
+      <c r="E90" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
@@ -3758,30 +3760,36 @@
       </c>
       <c r="B91" s="40"/>
       <c r="C91" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D91" s="41"/>
-      <c r="E91" s="62" t="s">
-        <v>371</v>
-      </c>
+      <c r="E91" s="62"/>
       <c r="F91" s="27"/>
       <c r="G91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="27"/>
+      <c r="B92" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="G92" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -3789,22 +3797,22 @@
         <v>234</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G93" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -3812,22 +3820,22 @@
         <v>234</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G94" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -3835,22 +3843,22 @@
         <v>234</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G95" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -3858,91 +3866,85 @@
         <v>234</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G96" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G97" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G98" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B99" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>218</v>
-      </c>
+      <c r="B99" s="40"/>
+      <c r="C99" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" s="41"/>
+      <c r="E99" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="F99" s="27"/>
       <c r="G99" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3951,207 +3953,207 @@
       </c>
       <c r="B100" s="40"/>
       <c r="C100" s="41" t="s">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="D100" s="41"/>
-      <c r="E100" s="62" t="s">
-        <v>372</v>
-      </c>
+      <c r="E100" s="62"/>
       <c r="F100" s="27"/>
       <c r="G100" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B101" s="40"/>
-      <c r="C101" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="27"/>
+      <c r="B101" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="G101" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="B102" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="41"/>
+      <c r="E102" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="48"/>
       <c r="G102" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B103" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="55" t="s">
-        <v>36</v>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41" t="s">
+        <v>348</v>
       </c>
       <c r="D103" s="41"/>
-      <c r="E103" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="48"/>
+      <c r="E103" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="F103" s="27"/>
       <c r="G103" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="D104" s="41"/>
-      <c r="E104" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="F104" s="27"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>342</v>
+      </c>
       <c r="G104" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B105" s="63"/>
       <c r="C105" s="54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F105" s="26" t="s">
         <v>342</v>
       </c>
       <c r="G105" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B106" s="63"/>
       <c r="C106" s="54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F106" s="26" t="s">
         <v>342</v>
       </c>
       <c r="G106" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="63"/>
-      <c r="C107" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="F107" s="26" t="s">
-        <v>342</v>
-      </c>
+      <c r="B107" s="40"/>
+      <c r="C107" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D107" s="41"/>
+      <c r="E107" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="F107" s="27"/>
       <c r="G107" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B108" s="40"/>
-      <c r="C108" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="D108" s="41"/>
-      <c r="E108" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="F108" s="27"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="G108" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B109" s="63"/>
-      <c r="C109" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="D109" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="F109" s="26" t="s">
-        <v>218</v>
-      </c>
+      <c r="B109" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" s="38"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="43"/>
       <c r="G109" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B110" s="40" t="s">
-        <v>50</v>
-      </c>
+      <c r="B110" s="40"/>
       <c r="C110" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="43"/>
+        <v>273</v>
+      </c>
+      <c r="D110" s="41"/>
+      <c r="E110" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="F110" s="27"/>
       <c r="G110" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -4160,30 +4162,36 @@
       </c>
       <c r="B111" s="40"/>
       <c r="C111" s="41" t="s">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="D111" s="41"/>
-      <c r="E111" s="62" t="s">
-        <v>372</v>
-      </c>
+      <c r="E111" s="62"/>
       <c r="F111" s="27"/>
       <c r="G111" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D112" s="41"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="27"/>
+      <c r="B112" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="G112" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -4191,22 +4199,22 @@
         <v>234</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>260</v>
       </c>
       <c r="G113" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -4214,22 +4222,22 @@
         <v>234</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>260</v>
       </c>
       <c r="G114" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -4237,125 +4245,125 @@
         <v>234</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F115" s="15" t="s">
         <v>260</v>
       </c>
       <c r="G115" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>260</v>
       </c>
       <c r="G116" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>260</v>
       </c>
       <c r="G117" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="B118" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" s="51"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="27"/>
       <c r="G118" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B119" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="51"/>
-      <c r="E119" s="32"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D119" s="41"/>
+      <c r="E119" s="62" t="s">
+        <v>372</v>
+      </c>
       <c r="F119" s="27"/>
       <c r="G119" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="40"/>
-      <c r="C120" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D120" s="41"/>
-      <c r="E120" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="F120" s="27"/>
+      <c r="B120" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="G120" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -4363,45 +4371,39 @@
         <v>234</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>260</v>
       </c>
       <c r="G121" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B122" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="B122" s="40"/>
+      <c r="C122" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="D122" s="41"/>
+      <c r="E122" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="F122" s="27"/>
       <c r="G122" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4410,30 +4412,36 @@
       </c>
       <c r="B123" s="40"/>
       <c r="C123" s="41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="D123" s="41"/>
-      <c r="E123" s="62" t="s">
-        <v>373</v>
-      </c>
+      <c r="E123" s="62"/>
       <c r="F123" s="27"/>
       <c r="G123" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B124" s="40"/>
-      <c r="C124" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D124" s="41"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="27"/>
+      <c r="B124" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>302</v>
+      </c>
       <c r="G124" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -4441,45 +4449,45 @@
         <v>234</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F125" s="15" t="s">
         <v>302</v>
       </c>
       <c r="G125" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F126" s="15" t="s">
         <v>302</v>
       </c>
       <c r="G126" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4487,119 +4495,117 @@
         <v>234</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F127" s="15" t="s">
         <v>302</v>
       </c>
       <c r="G127" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B128" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F128" s="15" t="s">
+      <c r="B128" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="41"/>
+      <c r="E128" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="48"/>
+      <c r="G128" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" s="40"/>
+      <c r="C129" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D129" s="41"/>
+      <c r="E129" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="F129" s="27"/>
+      <c r="G129" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B130" s="45"/>
+      <c r="C130" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G130" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="40"/>
+      <c r="C131" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="D131" s="41"/>
+      <c r="E131" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="F131" s="27"/>
+      <c r="G131" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" s="45"/>
+      <c r="C132" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="G128" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B129" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C129" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" s="41"/>
-      <c r="E129" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F129" s="48"/>
-      <c r="G129" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B130" s="40"/>
-      <c r="C130" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D130" s="41"/>
-      <c r="E130" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="F130" s="27"/>
-      <c r="G130" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" s="45"/>
-      <c r="C131" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="E131" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="G131" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B132" s="40"/>
-      <c r="C132" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="D132" s="41"/>
-      <c r="E132" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="F132" s="27"/>
       <c r="G132" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4608,177 +4614,175 @@
       </c>
       <c r="B133" s="45"/>
       <c r="C133" s="47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F133" s="26" t="s">
         <v>302</v>
       </c>
       <c r="G133" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B134" s="45"/>
       <c r="C134" s="47" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F134" s="26" t="s">
         <v>302</v>
       </c>
       <c r="G134" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B135" s="45"/>
       <c r="C135" s="47" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F135" s="26" t="s">
         <v>302</v>
       </c>
       <c r="G135" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B136" s="45"/>
-      <c r="C136" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="F136" s="26" t="s">
-        <v>302</v>
-      </c>
+      <c r="B136" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D136" s="38"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="27"/>
       <c r="G136" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B137" s="46" t="s">
-        <v>124</v>
-      </c>
+      <c r="B137" s="40"/>
       <c r="C137" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D137" s="38"/>
-      <c r="E137" s="30"/>
+        <v>326</v>
+      </c>
+      <c r="D137" s="41"/>
+      <c r="E137" s="62" t="s">
+        <v>373</v>
+      </c>
       <c r="F137" s="27"/>
       <c r="G137" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B138" s="40"/>
-      <c r="C138" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="D138" s="41"/>
-      <c r="E138" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="F138" s="27"/>
+      <c r="B138" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>302</v>
+      </c>
       <c r="G138" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F139" s="15" t="s">
         <v>302</v>
       </c>
       <c r="G139" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B140" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>302</v>
-      </c>
+      <c r="B140" s="40"/>
+      <c r="C140" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="27"/>
       <c r="G140" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B141" s="40"/>
-      <c r="C141" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="27"/>
+      <c r="B141" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C141" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="9"/>
       <c r="G141" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -4786,65 +4790,46 @@
         <v>234</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="9"/>
+        <v>338</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="15"/>
       <c r="G142" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B143" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C143" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="15"/>
+      <c r="B143" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C143" s="38"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="F143" s="27"/>
       <c r="G143" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B144" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="C144" s="38"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="F144" s="27"/>
-      <c r="G144" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+    <row r="147" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B150" s="18"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B151" s="18"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B152" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
